--- a/money.xlsx
+++ b/money.xlsx
@@ -13,7 +13,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -263,9 +262,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -289,6 +285,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -630,7 +629,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -643,7 +642,7 @@
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -746,7 +745,7 @@
       <c r="D3" s="28">
         <v>2006</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="35" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="27" t="s">
@@ -756,11 +755,13 @@
       <c r="H3" s="14">
         <v>30</v>
       </c>
-      <c r="I3" s="34"/>
+      <c r="I3" s="33"/>
       <c r="J3" s="20">
         <v>8.3999996185302734</v>
       </c>
-      <c r="K3" s="20"/>
+      <c r="K3" s="20">
+        <v>10000000</v>
+      </c>
       <c r="L3" s="21">
         <v>27</v>
       </c>
@@ -773,10 +774,10 @@
         <v>12</v>
       </c>
       <c r="B4" s="19"/>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="31">
         <v>1946</v>
       </c>
       <c r="E4" s="29" t="s">
@@ -790,11 +791,13 @@
         <v>35</v>
       </c>
       <c r="I4" s="10"/>
-      <c r="J4" s="37">
+      <c r="J4" s="36">
         <v>4.5</v>
       </c>
-      <c r="K4" s="31"/>
-      <c r="L4" s="38">
+      <c r="K4" s="39">
+        <v>268161000</v>
+      </c>
+      <c r="L4" s="37">
         <v>23.5</v>
       </c>
       <c r="R4">
@@ -823,11 +826,13 @@
         <v>8</v>
       </c>
       <c r="I5" s="10"/>
-      <c r="J5" s="39">
+      <c r="J5" s="38">
         <v>3.2000000476837158</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="39">
+      <c r="K5" s="38">
+        <v>0</v>
+      </c>
+      <c r="L5" s="38">
         <v>20</v>
       </c>
       <c r="R5">
@@ -835,7 +840,7 @@
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="35">
+      <c r="A6" s="34">
         <v>12</v>
       </c>
     </row>

--- a/money.xlsx
+++ b/money.xlsx
@@ -629,7 +629,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -639,10 +639,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
